--- a/data/trans_dic/P78_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78_2023-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.9560847320114635</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7402446052811482</v>
+        <v>0.7402446052811481</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.8360840396041198</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9205286460874541</v>
+        <v>0.9181342640771395</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7082141440336601</v>
+        <v>0.7098893264480858</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8135955301769016</v>
+        <v>0.8113773109086204</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9755210069722652</v>
+        <v>0.9749827867310894</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7677655115029504</v>
+        <v>0.768140892203119</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8538890918526432</v>
+        <v>0.853102495064527</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9485055463794312</v>
+        <v>0.9485055463794313</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.7709265211633352</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8541817067578439</v>
+        <v>0.8541817067578438</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.922212538492562</v>
+        <v>0.9191972730133243</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.745939821872049</v>
+        <v>0.7441420862994155</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8354823141007514</v>
+        <v>0.8378143888080305</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9661268544817739</v>
+        <v>0.9666667444474469</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7942440970286735</v>
+        <v>0.7940402569077311</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8696547212237266</v>
+        <v>0.870139011882329</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9374594864233747</v>
+        <v>0.9374594864233746</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.7979735783069667</v>
+        <v>0.7979735783069665</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.8613113978989361</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.903841156819009</v>
+        <v>0.9014750433590111</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7665933046993759</v>
+        <v>0.7703339702094573</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8402913872910249</v>
+        <v>0.838784035338533</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9624526266014681</v>
+        <v>0.960043198105904</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8245849161288307</v>
+        <v>0.8229789969249723</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8798401030770113</v>
+        <v>0.8808644101944463</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9097446188305256</v>
+        <v>0.9151416271317258</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7294645434841902</v>
+        <v>0.7265193850294294</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8163799182781143</v>
+        <v>0.8163918615858203</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9630795728259672</v>
+        <v>0.9653633543544946</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7829504986548436</v>
+        <v>0.7814166297416455</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8554437220226244</v>
+        <v>0.8548999453968521</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.94603301393177</v>
+        <v>0.9460330139317702</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.7667759827088031</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9314674318280844</v>
+        <v>0.9319032442755407</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7535919355079969</v>
+        <v>0.7520832779206509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8378481942069994</v>
+        <v>0.8384092055529448</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9573235433288995</v>
+        <v>0.9571891430337899</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7805075141317626</v>
+        <v>0.7811545316952804</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8567642617854185</v>
+        <v>0.8566555622068365</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>393375</v>
+        <v>392352</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>378943</v>
+        <v>379839</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>783007</v>
+        <v>780872</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>416875</v>
+        <v>416645</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>410807</v>
+        <v>411008</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>821785</v>
+        <v>821028</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>692032</v>
+        <v>689769</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>634175</v>
+        <v>632647</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1337250</v>
+        <v>1340982</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>724985</v>
+        <v>725391</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>675242</v>
+        <v>675068</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1391945</v>
+        <v>1392720</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>468742</v>
+        <v>467515</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>477972</v>
+        <v>480305</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>959708</v>
+        <v>957986</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>499139</v>
+        <v>497889</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>514130</v>
+        <v>513129</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1004877</v>
+        <v>1006047</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>589552</v>
+        <v>593049</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>614768</v>
+        <v>612286</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1217066</v>
+        <v>1217084</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>624115</v>
+        <v>625595</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>659844</v>
+        <v>658551</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1275302</v>
+        <v>1274492</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2183725</v>
+        <v>2184747</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2148871</v>
+        <v>2144569</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4353373</v>
+        <v>4356288</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2244342</v>
+        <v>2244027</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2225621</v>
+        <v>2227466</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>4451659</v>
+        <v>4451094</v>
       </c>
     </row>
     <row r="24">
